--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Enterprise Models: Galaxy A52s 5G</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Enterprise Models: Galaxy A52</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Xcover5</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy Xcover6 Pro</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy Xcover7</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy Z Fold2 5G</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy Xcover5</t>
+          <t>Galaxy S20</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy Xcover6 Pro</t>
+          <t>Galaxy S20 5G</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy Xcover7</t>
+          <t>Galaxy S20+</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip 5G</t>
+          <t>Galaxy S20+ 5G</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold2 5G</t>
+          <t>Galaxy S20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy S20</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy S20 5G</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy S20+</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy S20+ 5G</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra 5G</t>
+          <t>Galaxy A22e 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A22e 5G</t>
+          <t>Galaxy A32</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A32</t>
+          <t>Galaxy A32 5G</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A32 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy A52 5G</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy A52 5G</t>
+          <t>Galaxy Xcover Pro</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Xcover Pro</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A02s</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>Galaxy A12</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A42 5G</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A42 5G</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy M51</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy M31s</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy M51</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy F12</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy F12</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy F62</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy Tab A7</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>W21 5G</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7+</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>W21 5G</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2840,51 +2840,6 @@
         </is>
       </c>
       <c r="C161" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold2 5G</t>
+          <t>Galaxy Z Fold3 5G</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold3 5G</t>
+          <t>Galaxy Z Flip3 5G</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip3 5G</t>
+          <t>Galaxy Z Fold4</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold4</t>
+          <t>Galaxy Z Flip4</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip4</t>
+          <t>Galaxy Z Fold5</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold5</t>
+          <t>Galaxy Z Flip5</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip5</t>
+          <t>Galaxy Z Fold6</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold6</t>
+          <t>Galaxy Z Flip6</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip6</t>
+          <t>W23</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W23 flip</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>W23 flip</t>
+          <t>W24</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W24 Flip</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>W24 Flip</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy S20 FE 5G</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy Xcover5</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy Xcover5</t>
+          <t>Galaxy Xcover6 Pro</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy Xcover6 Pro</t>
+          <t>Galaxy Xcover7</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy Xcover7</t>
+          <t>Galaxy Z Fold2 5G</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold2 5G</t>
+          <t>Galaxy S20</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy S20</t>
+          <t>Galaxy S20 5G</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy S20 5G</t>
+          <t>Galaxy S20+</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy S20+</t>
+          <t>Galaxy S20+ 5G</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy S20+ 5G</t>
+          <t>Galaxy S20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra 5G</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy A22e 5G</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy A22e 5G</t>
+          <t>Galaxy A32</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A32</t>
+          <t>Galaxy A32 5G</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A32 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy A52 5G</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy A52 5G</t>
+          <t>Galaxy Xcover Pro</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Xcover Pro</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A02s</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>Galaxy A12</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A42 5G</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A42 5G</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy M51</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy M51</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy F12</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy F12</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy F62</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy Tab A7</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>W21 5G</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>W21 5G</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2825,21 +2825,6 @@
         </is>
       </c>
       <c r="C160" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold2 5G</t>
+          <t>Galaxy S20</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy S20</t>
+          <t>Galaxy S20 5G</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy S20 5G</t>
+          <t>Galaxy S20+</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy S20+</t>
+          <t>Galaxy S20+ 5G</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy S20+ 5G</t>
+          <t>Galaxy S20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra 5G</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy A22e 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy A22e 5G</t>
+          <t>Galaxy A32</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy A32</t>
+          <t>Galaxy A32 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A32 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy A52 5G</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Xcover Pro</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A52 5G</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>Galaxy Xcover Pro</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy A42 5G</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A02s</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A12</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy A42 5G</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy M51</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy F12</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy F12</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy F62</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>W21 5G</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>W21 5G</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2825,6 +2825,51 @@
         </is>
       </c>
       <c r="C160" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W23 flip</t>
+          <t>W23 Flip</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>W25</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G</t>
+          <t>W25 Flip</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy Z Fold Special Edition</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy Xcover5</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy Xcover6 Pro</t>
+          <t>Galaxy Xcover5</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy Xcover7</t>
+          <t>Galaxy Xcover6 Pro</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy S20</t>
+          <t>Galaxy Xcover7</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy S20 5G</t>
+          <t>Galaxy S20</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy S20+</t>
+          <t>Galaxy S20 5G</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy S20+ 5G</t>
+          <t>Galaxy S20+</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra 5G</t>
+          <t>Galaxy S20+ 5G</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy S20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy S20 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy A22e 5G</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy A32</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy A32 5G</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A32</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A32 5G</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy A52 5G</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Xcover Pro</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy A52 5G</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Xcover Pro</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A02s</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A42 5G</t>
+          <t>Galaxy A12</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A42 5G</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy F12</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy F12</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy F62</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>W21 5G</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>W21 5G</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2870,6 +2870,51 @@
         </is>
       </c>
       <c r="C163" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy A52 5G</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy A52 5G</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Xcover Pro</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Xcover Pro</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>Galaxy A02s</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy A12</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A42 5G</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A02s</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A12</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy F12</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F12</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy F62</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>W21 5G</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2870,51 +2870,6 @@
         </is>
       </c>
       <c r="C163" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A32</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A32 5G</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A32</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A32 5G</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy A52 5G</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Xcover Pro</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy A52 5G</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Xcover Pro</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy F12</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy F12</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy F62</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2870,6 +2870,51 @@
         </is>
       </c>
       <c r="C163" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Xcover Pro</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy M12</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy F12</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy F12</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy F62</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2900,21 +2900,6 @@
         </is>
       </c>
       <c r="C165" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A32 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A52 5G</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy A52 5G</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Xcover Pro</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M12</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F12</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Xcover Pro</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A72</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M62</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy F62</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2885,21 +2885,6 @@
         </is>
       </c>
       <c r="C164" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy Xcover5</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy Xcover6 Pro</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy Xcover7</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy S20</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy S20 5G</t>
+          <t>Galaxy S20 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy S20+</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy S20+ 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy S20 Ultra 5G</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A32</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy A52</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A52 5G</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A82 5G</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A72</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy M62</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy F62</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2825,66 +2825,6 @@
         </is>
       </c>
       <c r="C160" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C160"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A52</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A82 5G</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M42 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Tab A7 Lite</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Tab S6 Lite</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2825,6 +2825,21 @@
         </is>
       </c>
       <c r="C160" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy A56 5G</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy XCover6 Pro</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S20 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy F56 5G</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy Tab Active5 Pro</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy A22</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy A22 5G</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M42 5G</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy Tab A7 Lite</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite</t>
+          <t>Galaxy F52 5G</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Tab S7 FE</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2840,6 +2840,21 @@
         </is>
       </c>
       <c r="C161" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy A22 5G</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy M32</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy F22</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy F52 5G</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab S7 FE</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2810,51 +2810,6 @@
         </is>
       </c>
       <c r="C159" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy XCover6 Pro</t>
+          <t>Galaxy Tab Active5 Pro</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy XCover7 Pro</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy S20 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy F56 5G</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F56 5G</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5 Pro</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>Galaxy Z Fold7</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W23 Flip</t>
+          <t>Galaxy Z Flip7</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>Galaxy Z Flip7 FE</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>W24 Flip</t>
+          <t>W23</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W23 Flip</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>W25 Flip</t>
+          <t>W24</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold Special Edition</t>
+          <t>W24 Flip</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>W25</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>W25 Flip</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy Z Fold Special Edition</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S25</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S25+</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy S25 Ultra</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy S25 Edge</t>
+          <t>Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy A56 5G</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5 Pro</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy XCover6 Pro</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy XCover7 Pro</t>
+          <t>Galaxy Tab Active5 Pro</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy S20 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy Note20</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy Note20 5G</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy Note20 Ultra</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy Note20 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy M36 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy F56 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy F36 5G</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy F56 5G</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A22</t>
+          <t>Galaxy Tab A9+(2025)</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2356,12 +2356,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M32</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F22</t>
+          <t>Galaxy M21 2021</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy Watch8 40mm</t>
         </is>
       </c>
     </row>
@@ -2806,10 +2806,100 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Galaxy Watch8 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Galaxy Watch8 Classic 46mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
           <t>No Information</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold3 5G</t>
+          <t>Galaxy Z Fold4</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip3 5G</t>
+          <t>Galaxy Z Flip4</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold4</t>
+          <t>Galaxy Z Fold5</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip4</t>
+          <t>Galaxy Z Flip5</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold5</t>
+          <t>Galaxy Z Fold6</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip5</t>
+          <t>Galaxy Z Flip6</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold6</t>
+          <t>Galaxy Z Fold7</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip6</t>
+          <t>Galaxy Z Flip7</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold7</t>
+          <t>Galaxy Z Flip7 FE</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip7</t>
+          <t>W23</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip7 FE</t>
+          <t>W23 Flip</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W24</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>W23 Flip</t>
+          <t>W24 Flip</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W25</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>W24 Flip</t>
+          <t>W25 Flip</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>Galaxy Z Fold Special Edition</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>W25 Flip</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold Special Edition</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy S25</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy S25+</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy S25 Ultra</t>
+          <t>Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy S25 Edge</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy A56 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy Tab Active5 Pro</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5 Pro</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy XCover6 Pro</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy Z Fold3 5G</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy XCover7 Pro</t>
+          <t>Galaxy Z Flip3 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy Note20</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy Note20 5G</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy Note20 Ultra 5G</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A07</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M36 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy M36 5G</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F36 5G</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F56 5G</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy F36 5G</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy F56 5G</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy Tab A9+(2025)</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy A52s 5G</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+(2025)</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A03s</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy M32 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy M21 2021</t>
+          <t>Galaxy F42 5G</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch8 40mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch8 44mm</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch8 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 40mm</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 44mm</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 Classic 46mm</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2840,66 +2840,6 @@
         </is>
       </c>
       <c r="C161" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S25</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy S25+</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy S25 Ultra</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy S25 Edge</t>
+          <t>Galaxy S25 FE</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A07</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy A07</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy A17</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy A17 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy M36 5G</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy M36 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy F36 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy F56 5G</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy F36 5G</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy F56 5G</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy F07</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy F17 5G</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+(2025)</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A52s 5G</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab S10 Lite</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Tab S11</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy Tab S11 Ultra</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy A03s</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy Tab A9+(2025)</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy Tab A11</t>
         </is>
       </c>
     </row>
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy M32 5G</t>
+          <t>Galaxy Tab Active3</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy F42 5G</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy M22</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy M52 5G</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>W22 5G</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 40mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 44mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 Classic 46mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Watch8 40mm</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy Watch8 44mm</t>
         </is>
       </c>
     </row>
@@ -2836,10 +2836,85 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Galaxy Watch8 Classic 46mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
           <t>No Information</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S25</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S25+</t>
+          <t>Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy S25 Ultra</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy S25 Edge</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy S25 FE</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy A56 5G</t>
+          <t>Galaxy S25 FE</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5 Pro</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy XCover6 Pro</t>
+          <t>Galaxy Tab Active5 Pro</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy XCover7 Pro</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold3 5G</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip3 5G</t>
+          <t>Galaxy Z Fold3 5G</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy Z Flip3 5G</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G</t>
+          <t>Galaxy S20 FE</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy S20 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold Special Edition</t>
+          <t>W26</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy Z Fold Special Edition</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S25</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy S25+</t>
+          <t>Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy S25 Ultra</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy S25 Edge</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy S25 FE</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy A56 5G</t>
+          <t>Galaxy S25 FE</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5 Pro</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy XCover6 Pro</t>
+          <t>Galaxy Tab Active5 Pro</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy XCover7 Pro</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold3 5G</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip3 5G</t>
+          <t>Galaxy Z Fold3 5G</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE</t>
+          <t>Galaxy Z Flip3 5G</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy S20 FE 5G</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A13 5G</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G</t>
+          <t>Galaxy A07</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy A07</t>
+          <t>Galaxy A17</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy A17</t>
+          <t>Galaxy A17 5G</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy A17 5G</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy M36 5G</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy M36 5G</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy M07</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy M17 5G</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy F36 5G</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy F56 5G</t>
+          <t>Galaxy F36 5G</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy F07</t>
+          <t>Galaxy F56 5G</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy F17 5G</t>
+          <t>Galaxy F07</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy F17 5G</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Lite</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy Tab S11</t>
+          <t>Galaxy Tab S10 Lite</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy Tab S11 Ultra</t>
+          <t>Galaxy Tab S11</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab S11 Ultra</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+(2025)</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy Tab A11</t>
+          <t>Galaxy Tab A9+(2025)</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active3</t>
+          <t>Galaxy Tab A11</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy M22</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy M52 5G</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>W22 5G</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch8 40mm</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch8 44mm</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch8 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 40mm</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 44mm</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 Classic 46mm</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -2870,51 +2870,6 @@
         </is>
       </c>
       <c r="C163" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Tab A11+</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy A03</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy A03 core</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Biannual</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Tab A8</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 40mm</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 44mm</t>
+          <t>Galaxy Watch8 40mm</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 Classic 46mm</t>
+          <t>Galaxy Watch8 44mm</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy Watch8 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -2870,6 +2870,21 @@
         </is>
       </c>
       <c r="C163" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,9 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold4</t>
+          <t>Galaxy Foldable Series
+Galaxy Z TriFold
+Galaxy Z Fold4</t>
         </is>
       </c>
     </row>
@@ -471,7 +473,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip4</t>
+          <t>Galaxy Z Fold5</t>
         </is>
       </c>
     </row>
@@ -486,7 +488,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold5</t>
+          <t>Galaxy Z Fold6</t>
         </is>
       </c>
     </row>
@@ -501,7 +503,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip5</t>
+          <t>Galaxy Z Fold7</t>
         </is>
       </c>
     </row>
@@ -516,7 +518,8 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold6</t>
+          <t>Galaxy Z Fold Special Edition
+Galaxy Z Flip4</t>
         </is>
       </c>
     </row>
@@ -531,7 +534,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip6</t>
+          <t>Galaxy Z Flip5</t>
         </is>
       </c>
     </row>
@@ -546,7 +549,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold7</t>
+          <t>Galaxy Z Flip6</t>
         </is>
       </c>
     </row>
@@ -576,7 +579,8 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip7 FE</t>
+          <t>Galaxy Z Flip7 FE
+W23</t>
         </is>
       </c>
     </row>
@@ -591,7 +595,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>W23</t>
+          <t>W23 Flip</t>
         </is>
       </c>
     </row>
@@ -606,7 +610,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>W23 Flip</t>
+          <t>W24</t>
         </is>
       </c>
     </row>
@@ -621,7 +625,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>W24</t>
+          <t>W24 Flip</t>
         </is>
       </c>
     </row>
@@ -636,7 +640,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>W24 Flip</t>
+          <t>W25</t>
         </is>
       </c>
     </row>
@@ -651,7 +655,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>W25</t>
+          <t>W25 Flip</t>
         </is>
       </c>
     </row>
@@ -666,7 +670,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>W25 Flip</t>
+          <t>W26</t>
         </is>
       </c>
     </row>
@@ -681,7 +685,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>W26</t>
+          <t>Galaxy Z TriFold</t>
         </is>
       </c>
     </row>
@@ -696,7 +700,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold Special Edition</t>
+          <t>Galaxy Z Fold4</t>
         </is>
       </c>
     </row>
@@ -711,7 +715,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy Z Fold5</t>
         </is>
       </c>
     </row>
@@ -726,7 +730,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Galaxy Z Fold6</t>
         </is>
       </c>
     </row>
@@ -741,7 +745,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy Z Fold7</t>
         </is>
       </c>
     </row>
@@ -756,7 +760,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy Z Fold Special Edition</t>
         </is>
       </c>
     </row>
@@ -771,7 +775,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy Z Flip4</t>
         </is>
       </c>
     </row>
@@ -786,7 +790,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy Z Flip5</t>
         </is>
       </c>
     </row>
@@ -801,7 +805,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy Z Flip6</t>
         </is>
       </c>
     </row>
@@ -816,7 +820,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy Z Flip7</t>
         </is>
       </c>
     </row>
@@ -831,7 +835,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy Z Flip7 FE</t>
         </is>
       </c>
     </row>
@@ -846,7 +850,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>W23</t>
         </is>
       </c>
     </row>
@@ -861,7 +865,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>W23 Flip</t>
         </is>
       </c>
     </row>
@@ -876,7 +880,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>W24</t>
         </is>
       </c>
     </row>
@@ -891,7 +895,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Galaxy S25</t>
+          <t>W24 Flip</t>
         </is>
       </c>
     </row>
@@ -906,7 +910,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Galaxy S25+</t>
+          <t>W25</t>
         </is>
       </c>
     </row>
@@ -921,7 +925,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Galaxy S25 Ultra</t>
+          <t>W25 Flip</t>
         </is>
       </c>
     </row>
@@ -936,7 +940,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Galaxy S25 Edge</t>
+          <t>W26</t>
         </is>
       </c>
     </row>
@@ -951,7 +955,8 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Galaxy S25 FE</t>
+          <t>Galaxy S Series
+Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -966,7 +971,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Galaxy A56 5G</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -981,7 +986,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -996,7 +1001,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1016,8 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy S25 FE
+Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1032,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5 Pro</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1047,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Galaxy XCover6 Pro</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1062,8 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy S24 FE
+Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1078,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Galaxy XCover7 Pro</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1088,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold3 5G</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1103,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip3 5G</t>
+          <t>Galaxy S23 FE
+Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1119,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1134,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy S22 Ultra
+Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1150,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1165,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1180,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy A13 5G</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1195,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1210,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy S25 FE</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1225,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1240,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1255,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1270,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1285,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1300,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1315,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1330,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1345,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1360,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1375,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1390,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1405,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A Series
+Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1421,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1436,13 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Enterprise Models
+Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1452,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -1456,12 +1467,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A55 5G
+Galaxy Tab Active5 Pro
+Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1484,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1499,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1514,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1529,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1544,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A07</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1559,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy A17</t>
+          <t>Galaxy Tab Active5 Pro</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1574,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy A17 5G</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1589,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1591,12 +1604,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1624,9 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy Foldable Series
+Galaxy Z Fold3 5G
+Galaxy Z Flip3 5G</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1641,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy Z Fold3 5G</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1656,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy Z Flip3 5G</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1671,8 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy S Series
+Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1687,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1702,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1717,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy S21 5G</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1732,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy S21+ 5G</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1747,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy S21 Ultra 5G</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1762,8 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy A Series
+Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1778,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1793,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1808,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1823,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1838,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1853,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1868,8 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy A07
+Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1884,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy M36 5G</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1899,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1914,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy M07</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1929,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy M17 5G</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1944,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1959,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1974,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy A17</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1989,8 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy A17 5G
+Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1986,7 +2005,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2020,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2035,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2050,8 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy A26 5G
+Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2066,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2081,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2096,8 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy A36 5G
+Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2112,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy F36 5G</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2127,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy F56 5G</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2142,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy F07</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2157,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy F17 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2172,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2187,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2202,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2217,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy A07</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2232,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2247,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2262,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2277,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2292,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2307,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2322,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2337,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy A17</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2352,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy A17 5G</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2367,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Lite</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2382,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy Tab S11</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2397,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy Tab S11 Ultra</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2412,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2427,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2442,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+(2025)</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2457,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy Tab A11</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2472,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy Tab A11+</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2487,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2502,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2517,8 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy C Series
+Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2528,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2543,13 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy A03 core</t>
+          <t>Galaxy M Series
+Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2559,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2579,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2594,8 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy M07
+Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2610,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2625,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2640,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2655,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2670,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2685,9 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy M17 5G
+Galaxy M23 5G
+Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2702,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2717,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2732,9 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy M36 5G
+Galaxy M44 5G
+Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2749,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2764,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2779,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2794,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2809,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 40mm</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2824,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 44mm</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2839,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 Classic 46mm</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2849,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Ultra</t>
+          <t>Galaxy M07</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2864,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -2851,12 +2879,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy Book4 Pro 360</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2894,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>No Information</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Galaxy Book4 360</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -2881,10 +2909,1969 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Galaxy M14 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Galaxy M15 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Galaxy M16 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Galaxy M17 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Galaxy M23 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Galaxy M33 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Galaxy M34 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Galaxy M35 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Galaxy M36 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Galaxy M44 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Galaxy M53 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Galaxy M54 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Galaxy M55 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Galaxy M55s 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Galaxy M56 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Galaxy F Series
+Galaxy F04</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Galaxy F05</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Galaxy F06 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Galaxy F07
+Galaxy F13</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Galaxy F14</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Galaxy F14 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Galaxy F15 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Galaxy F16 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Galaxy F17 5G
+Galaxy F34 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Galaxy F36 5G
+Galaxy F54 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Galaxy F55 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Galaxy F56 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Galaxy F04</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Galaxy F05</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Galaxy F06 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Galaxy F07</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Galaxy F13</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Galaxy F14</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Galaxy F14 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Galaxy F15 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Galaxy F16 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Galaxy F17 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Galaxy F34 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Galaxy F36 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Galaxy F54 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Galaxy F55 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Galaxy F56 5G</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S Series
+Galaxy Tab S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S11 Ultra
+Galaxy Tab S10+</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10 FE</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10 FE+</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10 Lite
+Galaxy Tab S9</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9+</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9 FE</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9 FE+
+Galaxy Tab S8</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S8+</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S8 Ultra
+Galaxy Tab S6 Lite (2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S11 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10+</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10 FE</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10 FE+</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S10 Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9 FE</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S9 FE+</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S8+</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S8 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Galaxy Tab S6 Lite (2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A Series
+Galaxy Tab A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A11+
+Galaxy Tab A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A9+</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A9+(2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A11+</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A9+</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A9+(2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Enterprise Models
+Galaxy Tab Active4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Galaxy Tab Active5
+Galaxy XCover5</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Galaxy Tab Active4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Galaxy Tab Active5</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Galaxy XCover5</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Biannual</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Galaxy A Series
+Galaxy A03</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Biannual</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Galaxy A03</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Biannual</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A Series
+Galaxy Tab A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Biannual</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Galaxy Tab A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Galaxy Watch Series
+Galaxy Watch8 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Galaxy Watch8 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Galaxy Watch8 Classic 46mm
+Galaxy Watch Ultra
+Galaxy Watch7 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Galaxy Watch7 44mm
+Galaxy Watch FE
+Galaxy Watch6 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Galaxy Watch6 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Galaxy Watch6 Classic 43mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Galaxy Watch6 Classic 47mm
+Galaxy Watch5 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Galaxy Watch5 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Galaxy Watch5 Pro
+Galaxy Watch4 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Galaxy Watch4 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Galaxy Watch4 Classic 42mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Galaxy Watch4 Classic 46mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Galaxy Watch8 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Galaxy Watch8 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Galaxy Watch8 Classic 46mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Galaxy Watch Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Galaxy Watch7 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Galaxy Watch7 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Galaxy Watch FE</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Galaxy Watch6 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Galaxy Watch6 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Galaxy Watch6 Classic 43mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Galaxy Watch6 Classic 47mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Galaxy Watch5 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Galaxy Watch5 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Galaxy Watch5 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Galaxy Watch4 40mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Galaxy Watch4 44mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Galaxy Watch4 Classic 42mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Galaxy Watch4 Classic 46mm</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Galaxy XR Series
+Galaxy XR</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Galaxy XR</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
           <t>No Information</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Galaxy Book Series
+Galaxy Book4 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Galaxy Book4</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Ultra</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 Pro 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Galaxy Book4 360</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>No Information</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>

--- a/dataset/samsung_device_updates.xlsx
+++ b/dataset/samsung_device_updates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,8 +1108,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE
-Galaxy S22</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1123,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy S25</t>
         </is>
       </c>
     </row>
@@ -1139,8 +1138,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra
-Galaxy S21 FE 5G</t>
+          <t>Galaxy S25+</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1153,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Galaxy S25</t>
+          <t>Galaxy S25 Ultra</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1168,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Galaxy S25+</t>
+          <t>Galaxy S25 Edge</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1183,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Galaxy S25 Ultra</t>
+          <t>Galaxy S25 FE</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1198,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Galaxy S25 Edge</t>
+          <t>Galaxy S24</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1213,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Galaxy S25 FE</t>
+          <t>Galaxy S24+</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1228,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Galaxy S24</t>
+          <t>Galaxy S24 Ultra</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1243,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Galaxy S24+</t>
+          <t>Galaxy S24 FE</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1258,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Galaxy S24 Ultra</t>
+          <t>Galaxy S23</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1273,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Galaxy S24 FE</t>
+          <t>Galaxy S23+</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1288,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Galaxy S23</t>
+          <t>Galaxy S23 Ultra</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1303,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Galaxy S23+</t>
+          <t>Galaxy S23 FE</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1318,8 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Galaxy S23 Ultra</t>
+          <t>Galaxy A Series
+Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1334,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Galaxy S23 FE</t>
+          <t>Galaxy A56 5G</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1349,8 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Galaxy S22</t>
+          <t>Enterprise Models
+Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Galaxy S22+</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,9 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Galaxy S22 Ultra</t>
+          <t>Galaxy A55 5G
+Galaxy Tab Active5 Pro
+Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1397,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Galaxy S21 FE 5G</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1410,8 +1412,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Galaxy A Series
-Galaxy A56 5G</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1427,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Galaxy A56 5G</t>
+          <t>Galaxy A53 5G</t>
         </is>
       </c>
     </row>
@@ -1441,8 +1442,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Enterprise Models
-Galaxy A53 5G</t>
+          <t>Galaxy A54 5G</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy A55 5G</t>
         </is>
       </c>
     </row>
@@ -1472,9 +1472,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G
-Galaxy Tab Active5 Pro
-Galaxy XCover6 Pro</t>
+          <t>Galaxy Tab Active5 Pro</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1487,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy XCover6 Pro</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1502,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Galaxy XCover7 Pro</t>
+          <t>Galaxy XCover7</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1517,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galaxy A53 5G</t>
+          <t>Galaxy XCover7 Pro</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1527,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Galaxy A54 5G</t>
+          <t>Galaxy Foldable Series
+Galaxy Z Fold3 5G
+Galaxy Z Flip3 5G</t>
         </is>
       </c>
     </row>
@@ -1544,12 +1544,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Galaxy A55 5G</t>
+          <t>Galaxy Z Fold3 5G</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5 Pro</t>
+          <t>Galaxy Z Flip3 5G</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1574,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Galaxy XCover6 Pro</t>
+          <t>Galaxy S Series
+Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1590,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Galaxy XCover7</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -1604,12 +1605,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Galaxy XCover7 Pro</t>
+          <t>Galaxy S22 Ultra
+Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1624,9 +1626,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Galaxy Foldable Series
-Galaxy Z Fold3 5G
-Galaxy Z Flip3 5G</t>
+          <t>Galaxy S22</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Galaxy Z Fold3 5G</t>
+          <t>Galaxy S22+</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Galaxy Z Flip3 5G</t>
+          <t>Galaxy S22 Ultra</t>
         </is>
       </c>
     </row>
@@ -1671,8 +1671,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Galaxy S Series
-Galaxy S21 5G</t>
+          <t>Galaxy S21 FE 5G</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1686,8 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy A Series
+Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Galaxy S21 5G</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Galaxy S21+ 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Galaxy S21 Ultra 5G</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -1762,8 +1762,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Galaxy A Series
-Galaxy A04</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1777,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1792,8 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A07
+Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -1868,8 +1868,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Galaxy A07
-Galaxy A13</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1883,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1898,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A17</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1913,8 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A17 5G
+Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,8 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Galaxy A17</t>
+          <t>Galaxy A26 5G
+Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -1989,8 +1990,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Galaxy A17 5G
-Galaxy A23</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,8 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A36 5G
+Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2036,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A04</t>
         </is>
       </c>
     </row>
@@ -2050,8 +2051,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G
-Galaxy A33 5G</t>
+          <t>Galaxy A04s</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy A04e</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy A05</t>
         </is>
       </c>
     </row>
@@ -2096,8 +2096,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G
-Galaxy A73 5G</t>
+          <t>Galaxy A05s</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2111,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Galaxy A04</t>
+          <t>Galaxy A06</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2126,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Galaxy A04s</t>
+          <t>Galaxy A06 5G</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2141,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Galaxy A04e</t>
+          <t>Galaxy A07</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2156,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Galaxy A05</t>
+          <t>Galaxy A13</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2171,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Galaxy A05s</t>
+          <t>Galaxy A14</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2186,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Galaxy A06</t>
+          <t>Galaxy A14 5G</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2201,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Galaxy A06 5G</t>
+          <t>Galaxy A15</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2216,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Galaxy A07</t>
+          <t>Galaxy A15 5G</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2231,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Galaxy A13</t>
+          <t>Galaxy A16</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2246,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Galaxy A14</t>
+          <t>Galaxy A16 5G</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2261,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Galaxy A14 5G</t>
+          <t>Galaxy A17</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2276,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Galaxy A15</t>
+          <t>Galaxy A17 5G</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2291,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Galaxy A15 5G</t>
+          <t>Galaxy A23</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2306,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Galaxy A16</t>
+          <t>Galaxy A23 5G</t>
         </is>
       </c>
     </row>
@@ -2322,7 +2321,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Galaxy A16 5G</t>
+          <t>Galaxy A24</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2336,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Galaxy A17</t>
+          <t>Galaxy A25 5G</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2351,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Galaxy A17 5G</t>
+          <t>Galaxy A26 5G</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2366,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Galaxy A23</t>
+          <t>Galaxy A33 5G</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2381,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galaxy A23 5G</t>
+          <t>Galaxy A34 5G</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2396,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Galaxy A24</t>
+          <t>Galaxy A35 5G</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2411,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Galaxy A25 5G</t>
+          <t>Galaxy A36 5G</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2426,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Galaxy A26 5G</t>
+          <t>Galaxy A73 5G</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2441,8 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Galaxy A33 5G</t>
+          <t>Galaxy C Series
+Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Galaxy A34 5G</t>
+          <t>Galaxy C55 5G</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,8 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Galaxy A35 5G</t>
+          <t>Galaxy M Series
+Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2488,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Galaxy A36 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2503,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Galaxy A73 5G</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -2517,8 +2518,8 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Galaxy C Series
-Galaxy C55 5G</t>
+          <t>Galaxy M07
+Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2534,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Galaxy C55 5G</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -2548,8 +2549,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Galaxy M Series
-Galaxy M04</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -2594,8 +2594,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Galaxy M07
-Galaxy M13</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2609,9 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M17 5G
+Galaxy M23 5G
+Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2626,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2641,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2656,9 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M36 5G
+Galaxy M44 5G
+Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2673,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -2685,9 +2688,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Galaxy M17 5G
-Galaxy M23 5G
-Galaxy M33 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2703,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2718,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -2732,9 +2733,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Galaxy M36 5G
-Galaxy M44 5G
-Galaxy M53 5G</t>
+          <t>Galaxy M04</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2748,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy M05</t>
         </is>
       </c>
     </row>
@@ -2764,7 +2763,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy M06 5G</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2778,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy M07</t>
         </is>
       </c>
     </row>
@@ -2794,7 +2793,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy M13</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2808,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Galaxy M04</t>
+          <t>Galaxy M13 5G</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2823,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Galaxy M05</t>
+          <t>Galaxy M14</t>
         </is>
       </c>
     </row>
@@ -2839,7 +2838,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Galaxy M06 5G</t>
+          <t>Galaxy M14 5G</t>
         </is>
       </c>
     </row>
@@ -2854,7 +2853,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Galaxy M07</t>
+          <t>Galaxy M15 5G</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2868,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Galaxy M13</t>
+          <t>Galaxy M16 5G</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2883,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Galaxy M13 5G</t>
+          <t>Galaxy M17 5G</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2898,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Galaxy M14</t>
+          <t>Galaxy M23 5G</t>
         </is>
       </c>
     </row>
@@ -2914,7 +2913,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Galaxy M14 5G</t>
+          <t>Galaxy M33 5G</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2928,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Galaxy M15 5G</t>
+          <t>Galaxy M34 5G</t>
         </is>
       </c>
     </row>
@@ -2944,7 +2943,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Galaxy M16 5G</t>
+          <t>Galaxy M35 5G</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2958,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Galaxy M17 5G</t>
+          <t>Galaxy M36 5G</t>
         </is>
       </c>
     </row>
@@ -2974,7 +2973,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Galaxy M23 5G</t>
+          <t>Galaxy M44 5G</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2988,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Galaxy M33 5G</t>
+          <t>Galaxy M53 5G</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3003,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Galaxy M34 5G</t>
+          <t>Galaxy M54 5G</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3018,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Galaxy M35 5G</t>
+          <t>Galaxy M55 5G</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3033,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Galaxy M36 5G</t>
+          <t>Galaxy M55s 5G</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3048,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Galaxy M44 5G</t>
+          <t>Galaxy M56 5G</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3063,8 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Galaxy M53 5G</t>
+          <t>Galaxy F Series
+Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Galaxy M54 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Galaxy M55 5G</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -3109,7 +3109,8 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Galaxy M55s 5G</t>
+          <t>Galaxy F07
+Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3125,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Galaxy M56 5G</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -3139,8 +3140,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Galaxy F Series
-Galaxy F04</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -3185,8 +3185,8 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Galaxy F07
-Galaxy F13</t>
+          <t>Galaxy F17 5G
+Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,8 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F36 5G
+Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3232,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F56 5G</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy F04</t>
         </is>
       </c>
     </row>
@@ -3261,8 +3262,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Galaxy F17 5G
-Galaxy F34 5G</t>
+          <t>Galaxy F05</t>
         </is>
       </c>
     </row>
@@ -3277,8 +3277,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Galaxy F36 5G
-Galaxy F54 5G</t>
+          <t>Galaxy F06 5G</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3292,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy F07</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3307,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Galaxy F56 5G</t>
+          <t>Galaxy F13</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3322,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Galaxy F04</t>
+          <t>Galaxy F14</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3337,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Galaxy F05</t>
+          <t>Galaxy F14 5G</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3352,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Galaxy F06 5G</t>
+          <t>Galaxy F15 5G</t>
         </is>
       </c>
     </row>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Galaxy F07</t>
+          <t>Galaxy F16 5G</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3382,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Galaxy F13</t>
+          <t>Galaxy F17 5G</t>
         </is>
       </c>
     </row>
@@ -3398,7 +3397,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Galaxy F14</t>
+          <t>Galaxy F34 5G</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3412,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Galaxy F14 5G</t>
+          <t>Galaxy F36 5G</t>
         </is>
       </c>
     </row>
@@ -3428,7 +3427,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Galaxy F15 5G</t>
+          <t>Galaxy F54 5G</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3442,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Galaxy F16 5G</t>
+          <t>Galaxy F55 5G</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3457,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Galaxy F17 5G</t>
+          <t>Galaxy F56 5G</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3472,8 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Galaxy F34 5G</t>
+          <t>Galaxy Tab S Series
+Galaxy Tab S11</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,8 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Galaxy F36 5G</t>
+          <t>Galaxy Tab S11 Ultra
+Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3504,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Galaxy F54 5G</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -3518,7 +3519,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Galaxy F55 5G</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3534,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Galaxy F56 5G</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -3548,8 +3549,8 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Galaxy Tab S Series
-Galaxy Tab S11</t>
+          <t>Galaxy Tab S10 Lite
+Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -3564,8 +3565,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Galaxy Tab S11 Ultra
-Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3610,8 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy Tab S9 FE+
+Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -3625,8 +3626,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Lite
-Galaxy Tab S9</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,8 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S8 Ultra
+Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3657,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S11</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3672,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S11 Ultra</t>
         </is>
       </c>
     </row>
@@ -3686,8 +3687,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+
-Galaxy Tab S8</t>
+          <t>Galaxy Tab S10+</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab S10 Ultra</t>
         </is>
       </c>
     </row>
@@ -3717,8 +3717,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra
-Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy Tab S10 FE</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3732,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Galaxy Tab S11</t>
+          <t>Galaxy Tab S10 FE+</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3747,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Galaxy Tab S11 Ultra</t>
+          <t>Galaxy Tab S10 Lite</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3762,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10+</t>
+          <t>Galaxy Tab S9</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3777,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Ultra</t>
+          <t>Galaxy Tab S9+</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3792,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE</t>
+          <t>Galaxy Tab S9 Ultra</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3807,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 FE+</t>
+          <t>Galaxy Tab S9 FE</t>
         </is>
       </c>
     </row>
@@ -3823,7 +3822,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Galaxy Tab S10 Lite</t>
+          <t>Galaxy Tab S9 FE+</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3837,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9</t>
+          <t>Galaxy Tab S8</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3852,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9+</t>
+          <t>Galaxy Tab S8+</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3867,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 Ultra</t>
+          <t>Galaxy Tab S8 Ultra</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3882,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE</t>
+          <t>Galaxy Tab S6 Lite (2024)</t>
         </is>
       </c>
     </row>
@@ -3898,7 +3897,8 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Galaxy Tab S9 FE+</t>
+          <t>Galaxy Tab A Series
+Galaxy Tab A11</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,8 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8</t>
+          <t>Galaxy Tab A11+
+Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3929,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8+</t>
+          <t>Galaxy Tab A9+</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3944,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Galaxy Tab S8 Ultra</t>
+          <t>Galaxy Tab A9+(2025)</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3959,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Galaxy Tab S6 Lite (2024)</t>
+          <t>Galaxy Tab A11</t>
         </is>
       </c>
     </row>
@@ -3973,8 +3974,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Galaxy Tab A Series
-Galaxy Tab A11</t>
+          <t>Galaxy Tab A11+</t>
         </is>
       </c>
     </row>
@@ -3989,8 +3989,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Galaxy Tab A11+
-Galaxy Tab A9</t>
+          <t>Galaxy Tab A9</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4034,8 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Galaxy Tab A11</t>
+          <t>Enterprise Models
+Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,8 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Galaxy Tab A11+</t>
+          <t>Galaxy Tab Active5
+Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4066,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9</t>
+          <t>Galaxy Tab Active4 Pro</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4081,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+</t>
+          <t>Galaxy Tab Active5</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4096,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Galaxy Tab A9+(2025)</t>
+          <t>Galaxy XCover5</t>
         </is>
       </c>
     </row>
@@ -4110,8 +4111,8 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Enterprise Models
-Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Watch Series
+Galaxy Watch8 40mm</t>
         </is>
       </c>
     </row>
@@ -4126,8 +4127,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5
-Galaxy XCover5</t>
+          <t>Galaxy Watch8 44mm</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,9 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active4 Pro</t>
+          <t>Galaxy Watch8 Classic 46mm
+Galaxy Watch Ultra
+Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4159,9 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Galaxy Tab Active5</t>
+          <t>Galaxy Watch7 44mm
+Galaxy Watch FE
+Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -4172,7 +4176,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Galaxy XCover5</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -4182,13 +4186,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Galaxy A Series
-Galaxy A03</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4201,13 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Galaxy A03</t>
+          <t>Galaxy Watch6 Classic 47mm
+Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -4213,13 +4217,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Galaxy Tab A Series
-Galaxy Tab A8</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4232,13 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Biannual</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Galaxy Tab A8</t>
+          <t>Galaxy Watch5 Pro
+Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -4249,8 +4253,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Galaxy Watch Series
-Galaxy Watch8 40mm</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4268,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 44mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -4280,9 +4283,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 Classic 46mm
-Galaxy Watch Ultra
-Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -4297,9 +4298,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm
-Galaxy Watch FE
-Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch8 40mm</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch8 44mm</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4328,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy Watch8 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -4344,8 +4343,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm
-Galaxy Watch5 40mm</t>
+          <t>Galaxy Watch Ultra</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4358,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Watch7 40mm</t>
         </is>
       </c>
     </row>
@@ -4375,8 +4373,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro
-Galaxy Watch4 40mm</t>
+          <t>Galaxy Watch7 44mm</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4388,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Watch FE</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4403,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Watch6 40mm</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4418,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Watch6 44mm</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4433,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 40mm</t>
+          <t>Galaxy Watch6 Classic 43mm</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4448,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 44mm</t>
+          <t>Galaxy Watch6 Classic 47mm</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4463,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Galaxy Watch8 Classic 46mm</t>
+          <t>Galaxy Watch5 40mm</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4478,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Galaxy Watch Ultra</t>
+          <t>Galaxy Watch5 44mm</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4493,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 40mm</t>
+          <t>Galaxy Watch5 Pro</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4508,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Galaxy Watch7 44mm</t>
+          <t>Galaxy Watch4 40mm</t>
         </is>
       </c>
     </row>
@@ -4526,7 +4523,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Galaxy Watch FE</t>
+          <t>Galaxy Watch4 44mm</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4538,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 40mm</t>
+          <t>Galaxy Watch4 Classic 42mm</t>
         </is>
       </c>
     </row>
@@ -4556,7 +4553,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 44mm</t>
+          <t>Galaxy Watch4 Classic 46mm</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4568,8 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 43mm</t>
+          <t>Galaxy XR Series
+Galaxy XR</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4584,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Galaxy Watch6 Classic 47mm</t>
+          <t>Galaxy XR</t>
         </is>
       </c>
     </row>
@@ -4596,12 +4594,13 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 40mm</t>
+          <t>Galaxy Book Series
+Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -4611,12 +4610,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 44mm</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -4626,12 +4625,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Galaxy Watch5 Pro</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4640,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 40mm</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -4656,12 +4655,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 44mm</t>
+          <t>Galaxy Book4</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4670,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 42mm</t>
+          <t>Galaxy Book4 Ultra</t>
         </is>
       </c>
     </row>
@@ -4686,12 +4685,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Galaxy Watch4 Classic 46mm</t>
+          <t>Galaxy Book4 Pro</t>
         </is>
       </c>
     </row>
@@ -4701,13 +4700,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Galaxy XR Series
-Galaxy XR</t>
+          <t>Galaxy Book4 Pro 360</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4715,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>No Information</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Galaxy XR</t>
+          <t>Galaxy Book4 360</t>
         </is>
       </c>
     </row>
@@ -4736,142 +4734,6 @@
         </is>
       </c>
       <c r="C284" t="inlineStr">
-        <is>
-          <t>Galaxy Book Series
-Galaxy Book4 Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>Galaxy Book4</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 Pro 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Galaxy Book4 360</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>No Information</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
         <is>
           <t>Galaxy Book4</t>
         </is>
